--- a/LOGBOOK/End of day/Taken End Of Day.xlsx
+++ b/LOGBOOK/End of day/Taken End Of Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="84" windowWidth="11460" windowHeight="8736"/>
+    <workbookView xWindow="285" yWindow="90" windowWidth="11460" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="108">
   <si>
     <t>Twan</t>
   </si>
@@ -316,6 +316,30 @@
   </si>
   <si>
     <t>meeting. Tool. Kepler orbit functie werkt, weet waar je weer binnen komt na een skip. Moet nog kijken naar optimale tijdstap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTR, Team herindeling, flow diagram orbit tool opgezet, plan van aanpak komende periode uitgestippeld. </t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, begin gemaakt aan uitbreiding aero tool</t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, planning komende periode uitgedacht, deliverables in kaart gebracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTR, Team herindeling, ingelezen control systems en re-entry stabiliteit, </t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, Structural analysis tool gedefinieerd, plan van aanpak analyse uitdenken</t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, Structural analysis tool gedefinieerd, plan van aanpak analyse uitdenken, planning met Joost doornemen</t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, thermal analysis tool uitgedacht</t>
+  </si>
+  <si>
+    <t>MTR, Team herindeling, thermal analysis tool uitgedacht, taken risk engineer besproken met Sebastiaan</t>
   </si>
 </sst>
 </file>
@@ -517,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -535,9 +559,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -590,7 +615,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -662,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -836,26 +861,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="103" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>42132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -870,7 +895,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -885,7 +910,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -900,7 +925,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -915,7 +940,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -930,7 +955,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -945,7 +970,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -960,7 +985,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -975,7 +1000,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -990,7 +1015,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -1005,12 +1030,12 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42135</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>3</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -1145,12 +1170,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42136</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>9</v>
       </c>
@@ -1266,12 +1291,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>9</v>
       </c>
@@ -1381,12 +1406,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42142</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>4</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>9</v>
       </c>
@@ -1508,12 +1533,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42143</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>6</v>
       </c>
@@ -1599,7 +1624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>9</v>
       </c>
@@ -1635,12 +1660,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1677,7 @@
       </c>
       <c r="D74" s="15"/>
     </row>
-    <row r="75" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1724,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>7</v>
       </c>
@@ -1741,7 +1766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>8</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>9</v>
       </c>
@@ -1763,12 +1788,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42146</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1826,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +1870,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>9</v>
       </c>
@@ -1878,12 +1903,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42150</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>5</v>
       </c>
@@ -1894,93 +1919,111 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42151</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2043,7 @@
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>1</v>
       </c>
@@ -2009,7 +2052,7 @@
       </c>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2061,7 @@
       </c>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2070,7 @@
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2079,7 @@
       </c>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>6</v>
       </c>
@@ -2045,7 +2088,7 @@
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2097,7 @@
       </c>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2106,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>9</v>
       </c>
@@ -2072,12 +2115,12 @@
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42152</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2140,7 @@
       </c>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>1</v>
       </c>
@@ -2106,7 +2149,7 @@
       </c>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2158,7 @@
       </c>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2167,7 @@
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2176,7 @@
       </c>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2185,7 @@
       </c>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2194,7 @@
       </c>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2203,7 @@
       </c>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>9</v>
       </c>
@@ -2168,6 +2211,9 @@
         <v>14</v>
       </c>
       <c r="C131" s="5"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2181,7 +2227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2193,7 +2239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
